--- a/results_analysis/spark_motorFailure_01_hold1.xlsx
+++ b/results_analysis/spark_motorFailure_01_hold1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\MLTool_matlab\results_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8281AB1C-5DB5-443B-BAA1-733E341DB659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F86C3E-AD3F-4F4E-AAE8-B6B6824A0458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="734" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="734" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="acc_mean" sheetId="1" r:id="rId1"/>
@@ -1102,8 +1102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2031,7 +2031,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2633,7 +2633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF1E589-1659-439B-B1DA-4F9E028A9755}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3237,7 +3237,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4007,7 +4007,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4935,7 +4935,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5706,7 +5706,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6477,7 +6477,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7247,7 +7247,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8017,7 +8017,7 @@
   <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9155,7 +9155,7 @@
   <dimension ref="A1:S53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:R1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9362,7 +9362,7 @@
       <c r="E6" s="29">
         <v>1024.001</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="31">
         <v>1.5625E-2</v>
       </c>
       <c r="G6" s="29">
@@ -9398,7 +9398,7 @@
       <c r="Q6" s="29">
         <v>1024.001</v>
       </c>
-      <c r="R6" s="29">
+      <c r="R6" s="31">
         <v>7.8125E-3</v>
       </c>
       <c r="S6" s="29">
@@ -9437,7 +9437,7 @@
       <c r="K7" s="29">
         <v>1024.001</v>
       </c>
-      <c r="L7" s="29">
+      <c r="L7" s="30">
         <v>0.25</v>
       </c>
       <c r="M7" s="29">
@@ -9480,7 +9480,7 @@
       <c r="G8" s="29">
         <v>1024.001</v>
       </c>
-      <c r="H8" s="29">
+      <c r="H8" s="30">
         <v>0.25</v>
       </c>
       <c r="I8" s="29">
@@ -9510,7 +9510,7 @@
       <c r="Q8" s="29">
         <v>1024.001</v>
       </c>
-      <c r="R8" s="29">
+      <c r="R8" s="31">
         <v>3.125E-2</v>
       </c>
       <c r="S8" s="29">
@@ -9656,7 +9656,7 @@
       <c r="I11" s="29">
         <v>1</v>
       </c>
-      <c r="J11" s="30">
+      <c r="J11" s="19">
         <v>0.8</v>
       </c>
       <c r="K11" s="29">
@@ -9827,13 +9827,13 @@
       <c r="J14" s="31">
         <v>3.125E-2</v>
       </c>
-      <c r="K14" s="29">
+      <c r="K14" s="31">
         <v>6.34765625E-2</v>
       </c>
       <c r="L14" s="13">
         <v>6.25E-2</v>
       </c>
-      <c r="M14" s="29">
+      <c r="M14" s="31">
         <v>0.1259765625</v>
       </c>
       <c r="N14" s="31">
@@ -9881,7 +9881,7 @@
       <c r="I15" s="29">
         <v>512.0009765625</v>
       </c>
-      <c r="J15" s="29">
+      <c r="J15" s="31">
         <v>6.25E-2</v>
       </c>
       <c r="K15" s="29">
@@ -9890,16 +9890,16 @@
       <c r="L15" s="29">
         <v>128</v>
       </c>
-      <c r="M15" s="29">
+      <c r="M15" s="31">
         <v>6.34765625E-2</v>
       </c>
-      <c r="N15" s="29">
+      <c r="N15" s="31">
         <v>3.125E-2</v>
       </c>
       <c r="O15" s="29">
         <v>64.0009765625</v>
       </c>
-      <c r="P15" s="29">
+      <c r="P15" s="31">
         <v>3.90625E-3</v>
       </c>
       <c r="Q15" s="29">
@@ -9908,7 +9908,7 @@
       <c r="R15" s="29">
         <v>4</v>
       </c>
-      <c r="S15" s="13">
+      <c r="S15" s="30">
         <v>1.66015625E-2</v>
       </c>
     </row>
@@ -9921,10 +9921,10 @@
       <c r="D16" s="29">
         <v>512</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="31">
         <v>2.9296875E-3</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F16" s="31">
         <v>6.25E-2</v>
       </c>
       <c r="G16" s="19">
@@ -9936,7 +9936,7 @@
       <c r="I16" s="29">
         <v>2.0009765625</v>
       </c>
-      <c r="J16" s="29">
+      <c r="J16" s="31">
         <v>1.953125E-3</v>
       </c>
       <c r="K16" s="29">
@@ -9945,7 +9945,7 @@
       <c r="L16" s="29">
         <v>8</v>
       </c>
-      <c r="M16" s="29">
+      <c r="M16" s="31">
         <v>1.953125E-3</v>
       </c>
       <c r="N16" s="29">
@@ -9983,10 +9983,10 @@
       <c r="E17" s="29">
         <v>256.0009765625</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F17" s="31">
         <v>3.90625E-3</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G17" s="31">
         <v>6.34765625E-2</v>
       </c>
       <c r="H17" s="31">
@@ -10094,7 +10094,7 @@
       <c r="E19" s="29">
         <v>1024.0009765625</v>
       </c>
-      <c r="F19" s="30">
+      <c r="F19" s="31">
         <v>9.765625E-4</v>
       </c>
       <c r="G19" s="29">
@@ -10115,13 +10115,13 @@
       <c r="L19" s="31">
         <v>3.90625E-3</v>
       </c>
-      <c r="M19" s="29">
+      <c r="M19" s="13">
         <v>0.1259765625</v>
       </c>
       <c r="N19" s="29">
         <v>-1</v>
       </c>
-      <c r="O19" s="29">
+      <c r="O19" s="13">
         <v>-1.46484375E-2</v>
       </c>
       <c r="P19" s="29">
@@ -10176,7 +10176,7 @@
       <c r="N20" s="29">
         <v>-8</v>
       </c>
-      <c r="O20" s="29">
+      <c r="O20" s="13">
         <v>-0.1240234375</v>
       </c>
       <c r="P20" s="13">
